--- a/2_Desafio_interpolacion/Ejercicio.xlsx
+++ b/2_Desafio_interpolacion/Ejercicio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SIS254 - Metodos Numericos I\SIS254-MetodosNumericos\2_Desafio_interpolacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F51F54-C709-4F27-92D7-B7DE89995C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE29689-C968-4EBB-8454-26D1C012ADB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4151AC3F-CEE9-4A19-8F40-45441A2E5119}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>h</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>h (m)</t>
+  </si>
+  <si>
+    <t>T (F)</t>
   </si>
 </sst>
 </file>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301022F-9545-44AD-8407-69A3D1DA8005}">
   <dimension ref="B18:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +705,10 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>4</v>
